--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.802120.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.802120.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C73033FB-D5A2-4239-9FF6-6AE253A3D6C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83A0E6B8-4B0D-46BB-B03A-B8096C28601D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T065542.750" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T062146.490" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.802120.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.802120.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83A0E6B8-4B0D-46BB-B03A-B8096C28601D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E20E6410-8CF6-4F19-B096-B5C414186E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T062146.490" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 (4)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="75">
   <si>
     <t>Do Ty</t>
   </si>
@@ -221,6 +221,18 @@
   </si>
   <si>
     <t>PEMBAYARAN TELKOM FEB'24</t>
+  </si>
+  <si>
+    <t>JK</t>
+  </si>
+  <si>
+    <t>CASH JOURNAL - IDR</t>
+  </si>
+  <si>
+    <t>INDIBIZ</t>
+  </si>
+  <si>
+    <t>TELKOM</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1075,13 +1087,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ7"/>
+  <dimension ref="A1:AZ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1239,7 +1251,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1364,7 +1376,7 @@
         <v>1201.8021200000001</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -1489,60 +1501,310 @@
         <v>1201.8021200000001</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4">
+        <v>24001045</v>
+      </c>
+      <c r="D4">
+        <v>1201</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45343</v>
+      </c>
       <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4">
+        <v>72.430000000000007</v>
+      </c>
+      <c r="H4">
+        <v>72.430000000000007</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1144690</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1144690</v>
+      </c>
+      <c r="O4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4">
+        <v>15803</v>
+      </c>
+      <c r="T4" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4">
+        <v>2105767</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP4">
+        <v>1201</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY4">
+        <v>802120</v>
+      </c>
+      <c r="AZ4">
+        <v>1201.8021200000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>67</v>
       </c>
-      <c r="G4">
-        <v>139.61000000000001</v>
-      </c>
-      <c r="H4">
-        <v>139.61000000000001</v>
-      </c>
-      <c r="L4" s="2">
-        <v>2206338</v>
-      </c>
-      <c r="N4" s="2">
-        <v>2206338</v>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5">
+        <v>24001045</v>
+      </c>
+      <c r="D5">
+        <v>1201</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5">
+        <v>3.5</v>
+      </c>
+      <c r="H5">
+        <v>3.5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="2">
+        <v>55225</v>
+      </c>
+      <c r="N5" s="2">
+        <v>55225</v>
+      </c>
+      <c r="O5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5">
+        <v>15803</v>
+      </c>
+      <c r="T5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U5" t="s">
+        <v>59</v>
+      </c>
+      <c r="V5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X5">
+        <v>2105767</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA5">
+        <v>2</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP5">
+        <v>1201</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY5">
+        <v>802120</v>
+      </c>
+      <c r="AZ5">
+        <v>1201.8021200000001</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5">
-        <v>139.61000000000001</v>
-      </c>
-      <c r="H5">
-        <v>139.61000000000001</v>
-      </c>
-      <c r="L5" s="2">
-        <v>2206338</v>
-      </c>
-      <c r="N5" s="2">
-        <v>2206338</v>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6">
+        <v>215.54</v>
+      </c>
+      <c r="H6">
+        <v>215.54</v>
+      </c>
+      <c r="L6" s="2">
+        <v>3406253</v>
+      </c>
+      <c r="N6" s="2">
+        <v>3406253</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6">
-        <v>139.61000000000001</v>
-      </c>
-      <c r="H6">
-        <v>139.61000000000001</v>
-      </c>
-      <c r="L6" s="2">
-        <v>2206338</v>
-      </c>
-      <c r="N6" s="2">
-        <v>2206338</v>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7">
+        <v>215.54</v>
+      </c>
+      <c r="H7">
+        <v>215.54</v>
+      </c>
+      <c r="L7" s="2">
+        <v>3406253</v>
+      </c>
+      <c r="N7" s="2">
+        <v>3406253</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
-        <v>70</v>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8">
+        <v>215.54</v>
+      </c>
+      <c r="H8">
+        <v>215.54</v>
+      </c>
+      <c r="L8" s="2">
+        <v>3406253</v>
+      </c>
+      <c r="N8" s="2">
+        <v>3406253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="F9" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
